--- a/medicine/Mort/Harbard/Harbard.xlsx
+++ b/medicine/Mort/Harbard/Harbard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Harbard est un passeur, quelque peu rébarbatif, dans la mythologie germanique. Lorsque Thor, le fils d'Odin, souhaite franchir un des fleuves de Élivágar, il appelle Harbard pour être transporté, mais il se fait insulter. Face aux excès de Harbard, Thor s'énerve et dans sa rage, il ne se rend pas compte que Harbard est son père Odin.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harbard ou Hárbardr signifie barbe grise en vieux nordique. C'est un des noms utilisé par Odin.
 </t>
@@ -545,7 +559,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des noms d'Odin</t>
         </is>
